--- a/data/trans_dic/P62A$otras-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,99</t>
+          <t>0,0; 8,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 28,68</t>
+          <t>7,85; 28,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 33,16</t>
+          <t>10,45; 31,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 42,19</t>
+          <t>9,95; 40,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,14</t>
+          <t>0,0; 15,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,19; 40,95</t>
+          <t>16,37; 39,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,44; 44,84</t>
+          <t>18,23; 43,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,0; 44,59</t>
+          <t>17,45; 45,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 9,36</t>
+          <t>0,88; 8,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 30,94</t>
+          <t>14,26; 29,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,47; 32,57</t>
+          <t>16,86; 33,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 36,63</t>
+          <t>17,08; 37,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 11,62</t>
+          <t>2,9; 11,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 18,79</t>
+          <t>7,37; 18,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 25,44</t>
+          <t>11,42; 25,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 15,31</t>
+          <t>3,61; 15,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 29,09</t>
+          <t>10,58; 29,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 13,97</t>
+          <t>2,33; 13,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 28,2</t>
+          <t>16,66; 28,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,29</t>
+          <t>1,91; 7,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 16,41</t>
+          <t>7,19; 16,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 15,02</t>
+          <t>6,7; 14,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,14; 24,86</t>
+          <t>15,09; 24,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,57 +1010,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 13,82</t>
+          <t>1,21; 14,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,51</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 11,71</t>
+          <t>2,03; 12,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,62</t>
+          <t>0,0; 9,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,7</t>
+          <t>2,65; 15,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 17,64</t>
+          <t>4,07; 18,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 14,42</t>
+          <t>5,23; 15,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,97</t>
+          <t>3,06; 11,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 9,29</t>
+          <t>2,34; 9,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,47</t>
+          <t>4,77; 11,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,14</t>
+          <t>0,0; 7,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 14,11</t>
+          <t>3,06; 12,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,38</t>
+          <t>1,08; 10,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 21,34</t>
+          <t>5,19; 21,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 16,6</t>
+          <t>2,72; 15,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 17,22</t>
+          <t>4,55; 16,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 9,88</t>
+          <t>1,12; 9,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 16,13</t>
+          <t>5,08; 16,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 10,01</t>
+          <t>2,18; 9,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 13,16</t>
+          <t>4,6; 13,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,54</t>
+          <t>1,7; 7,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 15,91</t>
+          <t>7,01; 16,76</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,94</t>
+          <t>0,0; 12,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 18,68</t>
+          <t>2,01; 18,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 11,55</t>
+          <t>1,38; 11,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,89; 55,65</t>
+          <t>29,99; 54,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,28</t>
+          <t>0,0; 13,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 26,07</t>
+          <t>7,91; 27,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,22; 62,89</t>
+          <t>34,99; 63,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,73; 31,79</t>
+          <t>16,86; 32,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,3</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 18,34</t>
+          <t>6,02; 18,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,13; 33,27</t>
+          <t>17,56; 33,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,11; 39,13</t>
+          <t>24,75; 39,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,43</t>
+          <t>0,0; 10,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,95</t>
+          <t>0,0; 7,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 12,33</t>
+          <t>1,29; 11,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,1; 22,07</t>
+          <t>7,62; 22,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,62</t>
+          <t>0,0; 17,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,24; 18,15</t>
+          <t>3,24; 17,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 19,64</t>
+          <t>2,06; 19,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,14</t>
+          <t>3,02; 11,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,27</t>
+          <t>0,92; 9,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,08</t>
+          <t>1,5; 9,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 11,15</t>
+          <t>2,47; 11,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 15,97</t>
+          <t>6,91; 16,55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1569,57 +1570,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 13,37</t>
+          <t>3,59; 13,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,15</t>
+          <t>3,26; 10,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,82; 27,97</t>
+          <t>16,12; 28,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,05</t>
+          <t>1,0; 8,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 16,04</t>
+          <t>5,5; 16,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 19,88</t>
+          <t>8,15; 19,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 16,85</t>
+          <t>1,61; 16,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,17</t>
+          <t>0,44; 4,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,74</t>
+          <t>5,82; 12,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,65</t>
+          <t>6,6; 13,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 19,95</t>
+          <t>3,2; 19,47</t>
         </is>
       </c>
     </row>
@@ -1709,57 +1710,57 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,46</t>
+          <t>2,73; 9,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 8,1</t>
+          <t>1,95; 7,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64,32; 75,16</t>
+          <t>64,29; 75,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,68</t>
+          <t>0,97; 8,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,95; 18,81</t>
+          <t>8,15; 18,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,23</t>
+          <t>8,4; 19,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,44; 44,2</t>
+          <t>32,98; 43,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,84</t>
+          <t>0,41; 3,86</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,8</t>
+          <t>5,9; 12,04</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,74; 11,67</t>
+          <t>5,72; 11,53</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,94; 59,29</t>
+          <t>50,8; 58,83</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,73</t>
+          <t>0,37; 1,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,84</t>
+          <t>5,23; 8,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,45</t>
+          <t>4,91; 8,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,26; 32,99</t>
+          <t>27,24; 33,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,97</t>
+          <t>3,21; 6,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,97</t>
+          <t>10,5; 15,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,52</t>
+          <t>12,16; 17,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,26; 21,59</t>
+          <t>8,28; 21,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,56</t>
+          <t>1,8; 3,53</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,23</t>
+          <t>8,17; 11,3</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,79; 11,82</t>
+          <t>8,71; 12,01</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,35; 26,29</t>
+          <t>14,7; 26,17</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe otro tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12478</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11199</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5528</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18888</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16211</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8985</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2711</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31366</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27410</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14513</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4702</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5975; 21592</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6087; 18178</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2413; 9886</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5677</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11266; 26885</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10020; 23916</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5434; 14049</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>781; 7243</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20664; 42752</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19088; 38128</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9462; 20859</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8060</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18302</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23478</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5994</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16397</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6219</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26530</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7734</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24457</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24521</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>50008</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5435</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3832; 15697</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10954; 28051</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15394; 34231</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2862; 12547</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9401; 26069</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2137; 12596</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20333; 35247</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3830; 15231</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15896; 36475</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16095; 35303</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38754; 62440</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5389</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5598</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7483</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7767</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9527</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8452</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13156</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1835</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>994; 11564</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3942</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1866; 11305</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6351</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2004; 12019</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3250; 14669</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4381; 12658</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6781</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4826; 18563</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3967; 15613</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8378; 19743</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7314</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4120</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9421</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4938</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9342</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6777</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16656</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6840</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17078</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5531</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3136; 13216</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1043; 10404</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4099; 16962</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1762; 10092</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4582; 17080</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>868; 7568</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4102; 13230</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2942; 13337</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9338; 27580</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2958; 13219</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11199; 26772</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13357</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6886</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28501</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9885</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10846</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31388</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23242</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5555</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1005; 9234</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>919; 7654</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9415; 17164</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4763</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3720; 12927</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20014; 36091</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7024; 13443</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6435</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5841; 18284</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21764; 41903</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18079; 28968</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3178</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10682</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4965</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3331</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6509</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>14427</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6665</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5227</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>951; 8286</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6092; 18188</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8275</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1946; 10766</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>913; 8826</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1809; 7102</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1023; 10636</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2012; 12170</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2926; 13025</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9664; 23151</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12097</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9682</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>34347</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>14549</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>20355</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>20914</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>26646</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>30037</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>55261</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5713; 21549</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5011; 16716</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>25584; 45294</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1191; 10421</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8258; 24377</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12441; 29280</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5527; 58156</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1143; 10652</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>18003; 40009</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>20218; 42808</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>16070; 97870</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10397</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>9033</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>140138</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>19451</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>23568</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>66705</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>29848</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>32601</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>206843</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>5308; 19062</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>4169; 16955</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>129605; 151387</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1244; 10581</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>12628; 29146</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>15028; 34814</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>57559; 76608</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1213; 11468</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>20626; 42091</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>22444; 45270</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>191074; 221242</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>59271</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>59372</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>242339</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>27202</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>96076</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>108387</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>152188</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>33660</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>155347</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>167759</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>394527</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2732; 12874</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>45598; 77561</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>44216; 74670</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>218331; 265915</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>18477; 38851</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>78344; 115435</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>89612; 128867</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>77601; 201462</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>23706; 46446</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>132079; 182666</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>142716; 196679</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>255724; 455137</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>